--- a/TemperatureData/CampJohnson03/1003.xlsx
+++ b/TemperatureData/CampJohnson03/1003.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice.sharepoint.com/sites/TeamMosher/Shared Documents/General/People/Scott, Reed/FieldWork2022/HoboLoggerData/CampJohnson03/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitrepos\VTADS\TemperatureData\CampJohnson03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{0DD581E5-01B3-4707-8DD5-2E2DB8133B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB99A74D-EE1D-49D1-A34B-8E39D1DD4F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1003" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Plot Title: 21422126</t>
   </si>
@@ -53,9 +53,6 @@
     <t>End Of File (LGR S/N: 21422126)</t>
   </si>
   <si>
-    <t>Logged</t>
-  </si>
-  <si>
     <t>#Logger data for Camp Johnson-03</t>
   </si>
   <si>
@@ -68,13 +65,16 @@
     <t>#Logger was placed in pond on 6/29/2022 at unknown time</t>
   </si>
   <si>
-    <t>#Logger was collected on 8/24/20222 at 9:35 a.m.</t>
+    <t>#Logger was collected on 8/24/2022 at 9:35 a.m.</t>
+  </si>
+  <si>
+    <t>#Deleted all data after that date/time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -614,9 +614,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -654,7 +654,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -760,7 +760,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -902,17 +902,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5374"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I5273"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A5253" workbookViewId="0">
+      <selection activeCell="A5374" sqref="A5274:XFD5374"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -74747,1430 +74749,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5274" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5274">
-        <v>5272</v>
-      </c>
-      <c r="B5274" s="1">
-        <v>44797.40625</v>
-      </c>
-      <c r="C5274">
-        <v>76.876000000000005</v>
-      </c>
-      <c r="D5274">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5275" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5275">
-        <v>5273</v>
-      </c>
-      <c r="B5275" s="1">
-        <v>44797.416666666664</v>
-      </c>
-      <c r="C5275">
-        <v>77.400000000000006</v>
-      </c>
-      <c r="D5275">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5276" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5276">
-        <v>5274</v>
-      </c>
-      <c r="B5276" s="1">
-        <v>44797.427083333336</v>
-      </c>
-      <c r="C5276">
-        <v>77.224999999999994</v>
-      </c>
-      <c r="D5276">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5277" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5277">
-        <v>5275</v>
-      </c>
-      <c r="B5277" s="1">
-        <v>44797.4375</v>
-      </c>
-      <c r="C5277">
-        <v>77.400000000000006</v>
-      </c>
-      <c r="D5277">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5278" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5278">
-        <v>5276</v>
-      </c>
-      <c r="B5278" s="1">
-        <v>44797.447916666664</v>
-      </c>
-      <c r="C5278">
-        <v>81.09</v>
-      </c>
-      <c r="D5278">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5279" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5279">
-        <v>5277</v>
-      </c>
-      <c r="B5279" s="1">
-        <v>44797.458333333336</v>
-      </c>
-      <c r="C5279">
-        <v>82.686000000000007</v>
-      </c>
-      <c r="D5279">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5280" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5280">
-        <v>5278</v>
-      </c>
-      <c r="B5280" s="1">
-        <v>44797.46875</v>
-      </c>
-      <c r="C5280">
-        <v>83.221000000000004</v>
-      </c>
-      <c r="D5280">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5281" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5281">
-        <v>5279</v>
-      </c>
-      <c r="B5281" s="1">
-        <v>44797.479166666664</v>
-      </c>
-      <c r="C5281">
-        <v>85.373999999999995</v>
-      </c>
-      <c r="D5281">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5282" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5282">
-        <v>5280</v>
-      </c>
-      <c r="B5282" s="1">
-        <v>44797.489583333336</v>
-      </c>
-      <c r="C5282">
-        <v>88.465999999999994</v>
-      </c>
-      <c r="D5282">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5283" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5283">
-        <v>5281</v>
-      </c>
-      <c r="B5283" s="1">
-        <v>44797.5</v>
-      </c>
-      <c r="C5283">
-        <v>92.736999999999995</v>
-      </c>
-      <c r="D5283">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5284" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5284">
-        <v>5282</v>
-      </c>
-      <c r="B5284" s="1">
-        <v>44797.510416666664</v>
-      </c>
-      <c r="C5284">
-        <v>94.632999999999996</v>
-      </c>
-      <c r="D5284">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5285" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5285">
-        <v>5283</v>
-      </c>
-      <c r="B5285" s="1">
-        <v>44797.520833333336</v>
-      </c>
-      <c r="C5285">
-        <v>95.783000000000001</v>
-      </c>
-      <c r="D5285">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5286" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5286">
-        <v>5284</v>
-      </c>
-      <c r="B5286" s="1">
-        <v>44797.53125</v>
-      </c>
-      <c r="C5286">
-        <v>95.016000000000005</v>
-      </c>
-      <c r="D5286">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5287" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5287">
-        <v>5285</v>
-      </c>
-      <c r="B5287" s="1">
-        <v>44797.541666666664</v>
-      </c>
-      <c r="C5287">
-        <v>100.88200000000001</v>
-      </c>
-      <c r="D5287">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5288" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5288">
-        <v>5286</v>
-      </c>
-      <c r="B5288" s="1">
-        <v>44797.552083333336</v>
-      </c>
-      <c r="C5288">
-        <v>102.08799999999999</v>
-      </c>
-      <c r="D5288">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5289" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5289">
-        <v>5287</v>
-      </c>
-      <c r="B5289" s="1">
-        <v>44797.5625</v>
-      </c>
-      <c r="C5289">
-        <v>101.887</v>
-      </c>
-      <c r="D5289">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5290" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5290">
-        <v>5288</v>
-      </c>
-      <c r="B5290" s="1">
-        <v>44797.572916666664</v>
-      </c>
-      <c r="C5290">
-        <v>99.686999999999998</v>
-      </c>
-      <c r="D5290">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5291" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5291">
-        <v>5289</v>
-      </c>
-      <c r="B5291" s="1">
-        <v>44797.583333333336</v>
-      </c>
-      <c r="C5291">
-        <v>95.59</v>
-      </c>
-      <c r="D5291">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5292" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5292">
-        <v>5290</v>
-      </c>
-      <c r="B5292" s="1">
-        <v>44797.59375</v>
-      </c>
-      <c r="C5292">
-        <v>91.986999999999995</v>
-      </c>
-      <c r="D5292">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5293" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5293">
-        <v>5291</v>
-      </c>
-      <c r="B5293" s="1">
-        <v>44797.604166666664</v>
-      </c>
-      <c r="C5293">
-        <v>88.465999999999994</v>
-      </c>
-      <c r="D5293">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5294" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5294">
-        <v>5292</v>
-      </c>
-      <c r="B5294" s="1">
-        <v>44797.614583333336</v>
-      </c>
-      <c r="C5294">
-        <v>85.373999999999995</v>
-      </c>
-      <c r="D5294">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5295" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5295">
-        <v>5293</v>
-      </c>
-      <c r="B5295" s="1">
-        <v>44797.625</v>
-      </c>
-      <c r="C5295">
-        <v>83.043000000000006</v>
-      </c>
-      <c r="D5295">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5296" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5296">
-        <v>5294</v>
-      </c>
-      <c r="B5296" s="1">
-        <v>44797.635416666664</v>
-      </c>
-      <c r="C5296">
-        <v>80.206000000000003</v>
-      </c>
-      <c r="D5296">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5297" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5297">
-        <v>5295</v>
-      </c>
-      <c r="B5297" s="1">
-        <v>44797.645833333336</v>
-      </c>
-      <c r="C5297">
-        <v>77.573999999999998</v>
-      </c>
-      <c r="D5297">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5298" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5298">
-        <v>5296</v>
-      </c>
-      <c r="B5298" s="1">
-        <v>44797.65625</v>
-      </c>
-      <c r="C5298">
-        <v>75.311999999999998</v>
-      </c>
-      <c r="D5298">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5299" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5299">
-        <v>5297</v>
-      </c>
-      <c r="B5299" s="1">
-        <v>44797.666666666664</v>
-      </c>
-      <c r="C5299">
-        <v>73.753</v>
-      </c>
-      <c r="D5299">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5300" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5300">
-        <v>5298</v>
-      </c>
-      <c r="B5300" s="1">
-        <v>44797.677083333336</v>
-      </c>
-      <c r="C5300">
-        <v>72.372</v>
-      </c>
-      <c r="D5300">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5301" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5301">
-        <v>5299</v>
-      </c>
-      <c r="B5301" s="1">
-        <v>44797.6875</v>
-      </c>
-      <c r="C5301">
-        <v>71.512</v>
-      </c>
-      <c r="D5301">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5302" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5302">
-        <v>5300</v>
-      </c>
-      <c r="B5302" s="1">
-        <v>44797.697916666664</v>
-      </c>
-      <c r="C5302">
-        <v>71.683000000000007</v>
-      </c>
-      <c r="D5302">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5303" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5303">
-        <v>5301</v>
-      </c>
-      <c r="B5303" s="1">
-        <v>44797.708333333336</v>
-      </c>
-      <c r="C5303">
-        <v>79.852999999999994</v>
-      </c>
-      <c r="D5303">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5304" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5304">
-        <v>5302</v>
-      </c>
-      <c r="B5304" s="1">
-        <v>44797.71875</v>
-      </c>
-      <c r="C5304">
-        <v>79.677999999999997</v>
-      </c>
-      <c r="D5304">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5305" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5305">
-        <v>5303</v>
-      </c>
-      <c r="B5305" s="1">
-        <v>44797.729166666664</v>
-      </c>
-      <c r="C5305">
-        <v>78.974999999999994</v>
-      </c>
-      <c r="D5305">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5306" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5306">
-        <v>5304</v>
-      </c>
-      <c r="B5306" s="1">
-        <v>44797.739583333336</v>
-      </c>
-      <c r="C5306">
-        <v>78.448999999999998</v>
-      </c>
-      <c r="D5306">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5307" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5307">
-        <v>5305</v>
-      </c>
-      <c r="B5307" s="1">
-        <v>44797.75</v>
-      </c>
-      <c r="C5307">
-        <v>78.274000000000001</v>
-      </c>
-      <c r="D5307">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5308" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5308">
-        <v>5306</v>
-      </c>
-      <c r="B5308" s="1">
-        <v>44797.760416666664</v>
-      </c>
-      <c r="C5308">
-        <v>78.274000000000001</v>
-      </c>
-      <c r="D5308">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5309" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5309">
-        <v>5307</v>
-      </c>
-      <c r="B5309" s="1">
-        <v>44797.770833333336</v>
-      </c>
-      <c r="C5309">
-        <v>78.274000000000001</v>
-      </c>
-      <c r="D5309">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5310" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5310">
-        <v>5308</v>
-      </c>
-      <c r="B5310" s="1">
-        <v>44797.78125</v>
-      </c>
-      <c r="C5310">
-        <v>78.274000000000001</v>
-      </c>
-      <c r="D5310">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5311" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5311">
-        <v>5309</v>
-      </c>
-      <c r="B5311" s="1">
-        <v>44797.791666666664</v>
-      </c>
-      <c r="C5311">
-        <v>78.274000000000001</v>
-      </c>
-      <c r="D5311">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5312" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5312">
-        <v>5310</v>
-      </c>
-      <c r="B5312" s="1">
-        <v>44797.802083333336</v>
-      </c>
-      <c r="C5312">
-        <v>78.274000000000001</v>
-      </c>
-      <c r="D5312">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5313" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5313">
-        <v>5311</v>
-      </c>
-      <c r="B5313" s="1">
-        <v>44797.8125</v>
-      </c>
-      <c r="C5313">
-        <v>78.448999999999998</v>
-      </c>
-      <c r="D5313">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5314" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5314">
-        <v>5312</v>
-      </c>
-      <c r="B5314" s="1">
-        <v>44797.822916666664</v>
-      </c>
-      <c r="C5314">
-        <v>78.448999999999998</v>
-      </c>
-      <c r="D5314">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5315" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5315">
-        <v>5313</v>
-      </c>
-      <c r="B5315" s="1">
-        <v>44797.833333333336</v>
-      </c>
-      <c r="C5315">
-        <v>78.448999999999998</v>
-      </c>
-      <c r="D5315">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5316" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5316">
-        <v>5314</v>
-      </c>
-      <c r="B5316" s="1">
-        <v>44797.84375</v>
-      </c>
-      <c r="C5316">
-        <v>78.623999999999995</v>
-      </c>
-      <c r="D5316">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5317" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5317">
-        <v>5315</v>
-      </c>
-      <c r="B5317" s="1">
-        <v>44797.854166666664</v>
-      </c>
-      <c r="C5317">
-        <v>78.623999999999995</v>
-      </c>
-      <c r="D5317">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5318" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5318">
-        <v>5316</v>
-      </c>
-      <c r="B5318" s="1">
-        <v>44797.864583333336</v>
-      </c>
-      <c r="C5318">
-        <v>78.623999999999995</v>
-      </c>
-      <c r="D5318">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5319" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5319">
-        <v>5317</v>
-      </c>
-      <c r="B5319" s="1">
-        <v>44797.875</v>
-      </c>
-      <c r="C5319">
-        <v>78.623999999999995</v>
-      </c>
-      <c r="D5319">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5320" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5320">
-        <v>5318</v>
-      </c>
-      <c r="B5320" s="1">
-        <v>44797.885416666664</v>
-      </c>
-      <c r="C5320">
-        <v>78.8</v>
-      </c>
-      <c r="D5320">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5321" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5321">
-        <v>5319</v>
-      </c>
-      <c r="B5321" s="1">
-        <v>44797.895833333336</v>
-      </c>
-      <c r="C5321">
-        <v>78.974999999999994</v>
-      </c>
-      <c r="D5321">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5322" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5322">
-        <v>5320</v>
-      </c>
-      <c r="B5322" s="1">
-        <v>44797.90625</v>
-      </c>
-      <c r="C5322">
-        <v>79.150999999999996</v>
-      </c>
-      <c r="D5322">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5323" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5323">
-        <v>5321</v>
-      </c>
-      <c r="B5323" s="1">
-        <v>44797.916666666664</v>
-      </c>
-      <c r="C5323">
-        <v>78.974999999999994</v>
-      </c>
-      <c r="D5323">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5324" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5324">
-        <v>5322</v>
-      </c>
-      <c r="B5324" s="1">
-        <v>44797.927083333336</v>
-      </c>
-      <c r="C5324">
-        <v>78.8</v>
-      </c>
-      <c r="D5324">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5325" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5325">
-        <v>5323</v>
-      </c>
-      <c r="B5325" s="1">
-        <v>44797.9375</v>
-      </c>
-      <c r="C5325">
-        <v>78.623999999999995</v>
-      </c>
-      <c r="D5325">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5326" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5326">
-        <v>5324</v>
-      </c>
-      <c r="B5326" s="1">
-        <v>44797.947916666664</v>
-      </c>
-      <c r="C5326">
-        <v>78.274000000000001</v>
-      </c>
-      <c r="D5326">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5327" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5327">
-        <v>5325</v>
-      </c>
-      <c r="B5327" s="1">
-        <v>44797.958333333336</v>
-      </c>
-      <c r="C5327">
-        <v>78.274000000000001</v>
-      </c>
-      <c r="D5327">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5328" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5328">
-        <v>5326</v>
-      </c>
-      <c r="B5328" s="1">
-        <v>44797.96875</v>
-      </c>
-      <c r="C5328">
-        <v>78.274000000000001</v>
-      </c>
-      <c r="D5328">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5329" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5329">
-        <v>5327</v>
-      </c>
-      <c r="B5329" s="1">
-        <v>44797.979166666664</v>
-      </c>
-      <c r="C5329">
-        <v>78.274000000000001</v>
-      </c>
-      <c r="D5329">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5330" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5330">
-        <v>5328</v>
-      </c>
-      <c r="B5330" s="1">
-        <v>44797.989583333336</v>
-      </c>
-      <c r="C5330">
-        <v>78.274000000000001</v>
-      </c>
-      <c r="D5330">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5331" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5331">
-        <v>5329</v>
-      </c>
-      <c r="B5331" s="1">
-        <v>44798</v>
-      </c>
-      <c r="C5331">
-        <v>78.274000000000001</v>
-      </c>
-      <c r="D5331">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5332" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5332">
-        <v>5330</v>
-      </c>
-      <c r="B5332" s="1">
-        <v>44798.010416666664</v>
-      </c>
-      <c r="C5332">
-        <v>78.274000000000001</v>
-      </c>
-      <c r="D5332">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5333" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5333">
-        <v>5331</v>
-      </c>
-      <c r="B5333" s="1">
-        <v>44798.020833333336</v>
-      </c>
-      <c r="C5333">
-        <v>78.274000000000001</v>
-      </c>
-      <c r="D5333">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5334" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5334">
-        <v>5332</v>
-      </c>
-      <c r="B5334" s="1">
-        <v>44798.03125</v>
-      </c>
-      <c r="C5334">
-        <v>77.923000000000002</v>
-      </c>
-      <c r="D5334">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5335" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5335">
-        <v>5333</v>
-      </c>
-      <c r="B5335" s="1">
-        <v>44798.041666666664</v>
-      </c>
-      <c r="C5335">
-        <v>77.224999999999994</v>
-      </c>
-      <c r="D5335">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5336" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5336">
-        <v>5334</v>
-      </c>
-      <c r="B5336" s="1">
-        <v>44798.052083333336</v>
-      </c>
-      <c r="C5336">
-        <v>76.353999999999999</v>
-      </c>
-      <c r="D5336">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5337" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5337">
-        <v>5335</v>
-      </c>
-      <c r="B5337" s="1">
-        <v>44798.0625</v>
-      </c>
-      <c r="C5337">
-        <v>75.831999999999994</v>
-      </c>
-      <c r="D5337">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5338" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5338">
-        <v>5336</v>
-      </c>
-      <c r="B5338" s="1">
-        <v>44798.072916666664</v>
-      </c>
-      <c r="C5338">
-        <v>75.138999999999996</v>
-      </c>
-      <c r="D5338">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5339" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5339">
-        <v>5337</v>
-      </c>
-      <c r="B5339" s="1">
-        <v>44798.083333333336</v>
-      </c>
-      <c r="C5339">
-        <v>74.790999999999997</v>
-      </c>
-      <c r="D5339">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5340" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5340">
-        <v>5338</v>
-      </c>
-      <c r="B5340" s="1">
-        <v>44798.09375</v>
-      </c>
-      <c r="C5340">
-        <v>74.271000000000001</v>
-      </c>
-      <c r="D5340">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5341" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5341">
-        <v>5339</v>
-      </c>
-      <c r="B5341" s="1">
-        <v>44798.104166666664</v>
-      </c>
-      <c r="C5341">
-        <v>74.097999999999999</v>
-      </c>
-      <c r="D5341">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5342" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5342">
-        <v>5340</v>
-      </c>
-      <c r="B5342" s="1">
-        <v>44798.114583333336</v>
-      </c>
-      <c r="C5342">
-        <v>73.753</v>
-      </c>
-      <c r="D5342">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5343" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5343">
-        <v>5341</v>
-      </c>
-      <c r="B5343" s="1">
-        <v>44798.125</v>
-      </c>
-      <c r="C5343">
-        <v>73.406999999999996</v>
-      </c>
-      <c r="D5343">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5344" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5344">
-        <v>5342</v>
-      </c>
-      <c r="B5344" s="1">
-        <v>44798.135416666664</v>
-      </c>
-      <c r="C5344">
-        <v>73.233999999999995</v>
-      </c>
-      <c r="D5344">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5345" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5345">
-        <v>5343</v>
-      </c>
-      <c r="B5345" s="1">
-        <v>44798.145833333336</v>
-      </c>
-      <c r="C5345">
-        <v>73.233999999999995</v>
-      </c>
-      <c r="D5345">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5346" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5346">
-        <v>5344</v>
-      </c>
-      <c r="B5346" s="1">
-        <v>44798.15625</v>
-      </c>
-      <c r="C5346">
-        <v>73.061999999999998</v>
-      </c>
-      <c r="D5346">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5347" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5347">
-        <v>5345</v>
-      </c>
-      <c r="B5347" s="1">
-        <v>44798.166666666664</v>
-      </c>
-      <c r="C5347">
-        <v>72.891000000000005</v>
-      </c>
-      <c r="D5347">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5348" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5348">
-        <v>5346</v>
-      </c>
-      <c r="B5348" s="1">
-        <v>44798.177083333336</v>
-      </c>
-      <c r="C5348">
-        <v>72.718000000000004</v>
-      </c>
-      <c r="D5348">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5349" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5349">
-        <v>5347</v>
-      </c>
-      <c r="B5349" s="1">
-        <v>44798.1875</v>
-      </c>
-      <c r="C5349">
-        <v>72.545000000000002</v>
-      </c>
-      <c r="D5349">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5350" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5350">
-        <v>5348</v>
-      </c>
-      <c r="B5350" s="1">
-        <v>44798.197916666664</v>
-      </c>
-      <c r="C5350">
-        <v>72.545000000000002</v>
-      </c>
-      <c r="D5350">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5351" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5351">
-        <v>5349</v>
-      </c>
-      <c r="B5351" s="1">
-        <v>44798.208333333336</v>
-      </c>
-      <c r="C5351">
-        <v>72.372</v>
-      </c>
-      <c r="D5351">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5352" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5352">
-        <v>5350</v>
-      </c>
-      <c r="B5352" s="1">
-        <v>44798.21875</v>
-      </c>
-      <c r="C5352">
-        <v>72.372</v>
-      </c>
-      <c r="D5352">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5353" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5353">
-        <v>5351</v>
-      </c>
-      <c r="B5353" s="1">
-        <v>44798.229166666664</v>
-      </c>
-      <c r="C5353">
-        <v>72.198999999999998</v>
-      </c>
-      <c r="D5353">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5354" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5354">
-        <v>5352</v>
-      </c>
-      <c r="B5354" s="1">
-        <v>44798.239583333336</v>
-      </c>
-      <c r="C5354">
-        <v>72.028000000000006</v>
-      </c>
-      <c r="D5354">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5355" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5355">
-        <v>5353</v>
-      </c>
-      <c r="B5355" s="1">
-        <v>44798.25</v>
-      </c>
-      <c r="C5355">
-        <v>72.028000000000006</v>
-      </c>
-      <c r="D5355">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5356" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5356">
-        <v>5354</v>
-      </c>
-      <c r="B5356" s="1">
-        <v>44798.260416666664</v>
-      </c>
-      <c r="C5356">
-        <v>71.855999999999995</v>
-      </c>
-      <c r="D5356">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5357" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5357">
-        <v>5355</v>
-      </c>
-      <c r="B5357" s="1">
-        <v>44798.270833333336</v>
-      </c>
-      <c r="C5357">
-        <v>71.855999999999995</v>
-      </c>
-      <c r="D5357">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5358" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5358">
-        <v>5356</v>
-      </c>
-      <c r="B5358" s="1">
-        <v>44798.28125</v>
-      </c>
-      <c r="C5358">
-        <v>71.683000000000007</v>
-      </c>
-      <c r="D5358">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5359" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5359">
-        <v>5357</v>
-      </c>
-      <c r="B5359" s="1">
-        <v>44798.291666666664</v>
-      </c>
-      <c r="C5359">
-        <v>71.683000000000007</v>
-      </c>
-      <c r="D5359">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5360" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5360">
-        <v>5358</v>
-      </c>
-      <c r="B5360" s="1">
-        <v>44798.302083333336</v>
-      </c>
-      <c r="C5360">
-        <v>71.512</v>
-      </c>
-      <c r="D5360">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5361" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5361">
-        <v>5359</v>
-      </c>
-      <c r="B5361" s="1">
-        <v>44798.3125</v>
-      </c>
-      <c r="C5361">
-        <v>71.338999999999999</v>
-      </c>
-      <c r="D5361">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5362" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5362">
-        <v>5360</v>
-      </c>
-      <c r="B5362" s="1">
-        <v>44798.322916666664</v>
-      </c>
-      <c r="C5362">
-        <v>71.168000000000006</v>
-      </c>
-      <c r="D5362">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5363" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5363">
-        <v>5361</v>
-      </c>
-      <c r="B5363" s="1">
-        <v>44798.333333333336</v>
-      </c>
-      <c r="C5363">
-        <v>70.650999999999996</v>
-      </c>
-      <c r="D5363">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5364" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5364">
-        <v>5362</v>
-      </c>
-      <c r="B5364" s="1">
-        <v>44798.34375</v>
-      </c>
-      <c r="C5364">
-        <v>70.823999999999998</v>
-      </c>
-      <c r="D5364">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5365" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5365">
-        <v>5363</v>
-      </c>
-      <c r="B5365" s="1">
-        <v>44798.34443287037</v>
-      </c>
-      <c r="E5365" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5366" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5366">
-        <v>5364</v>
-      </c>
-      <c r="B5366" s="1">
-        <v>44798.344502314816</v>
-      </c>
-      <c r="F5366" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5367" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5367">
-        <v>5365</v>
-      </c>
-      <c r="B5367" s="1">
-        <v>44798.344548611109</v>
-      </c>
-      <c r="E5367" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5368" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5368">
-        <v>5366</v>
-      </c>
-      <c r="B5368" s="1">
-        <v>44798.344652777778</v>
-      </c>
-      <c r="F5368" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5369" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5369">
-        <v>5367</v>
-      </c>
-      <c r="B5369" s="1">
-        <v>44798.344837962963</v>
-      </c>
-      <c r="E5369" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5370" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5370">
-        <v>5368</v>
-      </c>
-      <c r="B5370" s="1">
-        <v>44798.344849537039</v>
-      </c>
-      <c r="G5370" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5371" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5371">
-        <v>5369</v>
-      </c>
-      <c r="B5371" s="1">
-        <v>44798.345277777778</v>
-      </c>
-      <c r="F5371" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5372" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5372">
-        <v>5370</v>
-      </c>
-      <c r="B5372" s="1">
-        <v>44798.345312500001</v>
-      </c>
-      <c r="G5372" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5373" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5373">
-        <v>5371</v>
-      </c>
-      <c r="B5373" s="1">
-        <v>44798.345324074071</v>
-      </c>
-      <c r="E5373" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5374" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5374">
-        <v>5372</v>
-      </c>
-      <c r="B5374" s="1">
-        <v>44798.345405092594</v>
-      </c>
-      <c r="H5374" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5374" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -76407,15 +75027,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="94106a43-364c-4431-a764-9e3dd608a139" xsi:nil="true"/>
@@ -76426,14 +75037,49 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72052D71-204A-451D-B223-2BCFF069EA4D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72052D71-204A-451D-B223-2BCFF069EA4D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6f61aad6-7023-4354-b4be-ac6efb5d4555"/>
+    <ds:schemaRef ds:uri="94106a43-364c-4431-a764-9e3dd608a139"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D05B79A-E672-430E-8066-29F74B178125}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E5DC663-8ADC-423C-961C-7CB1B2C8A1BA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="94106a43-364c-4431-a764-9e3dd608a139"/>
+    <ds:schemaRef ds:uri="6f61aad6-7023-4354-b4be-ac6efb5d4555"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E5DC663-8ADC-423C-961C-7CB1B2C8A1BA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D05B79A-E672-430E-8066-29F74B178125}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>